--- a/contenedores/airflow/mantenedores/parametros_generales.xlsx
+++ b/contenedores/airflow/mantenedores/parametros_generales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC374F4-DCF0-49B2-A49A-B15F8C0CD03A}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B756788-3F4B-4609-BE70-9379BE5417F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cod</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Codigo de la institucion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Codigo de moneda usada para UF</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>777</t>
   </si>
 </sst>
 </file>
@@ -359,16 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -390,8 +402,19 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>777</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/contenedores/airflow/mantenedores/parametros_generales.xlsx
+++ b/contenedores/airflow/mantenedores/parametros_generales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B756788-3F4B-4609-BE70-9379BE5417F3}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{973359EA-8C19-44A3-A25E-E66F2FC82DF7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros_generales" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>cod</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>777</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Fecha de proceso</t>
+  </si>
+  <si>
+    <t>20251107</t>
   </si>
 </sst>
 </file>
@@ -371,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,6 +426,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
